--- a/Code/Results/Cases/Case_4_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_129/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38208947890484</v>
+        <v>15.6333735743518</v>
       </c>
       <c r="C2">
-        <v>18.8063232527114</v>
+        <v>10.77385563564584</v>
       </c>
       <c r="D2">
-        <v>7.290548318488456</v>
+        <v>5.968165594392101</v>
       </c>
       <c r="E2">
-        <v>30.15287844083848</v>
+        <v>16.53126690945976</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.040721210584938</v>
+        <v>3.606950018463854</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.6720953282736</v>
+        <v>20.38903314766108</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.66502702777687</v>
+        <v>14.86797853438551</v>
       </c>
       <c r="C3">
-        <v>17.61559310514028</v>
+        <v>10.12104376140404</v>
       </c>
       <c r="D3">
-        <v>6.773575465857594</v>
+        <v>5.84689993182348</v>
       </c>
       <c r="E3">
-        <v>27.91029567760997</v>
+        <v>15.58853288814663</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.049597483861755</v>
+        <v>3.610008915970679</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.09743737345103</v>
+        <v>20.41558900619489</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.55294626339586</v>
+        <v>14.37878427975039</v>
       </c>
       <c r="C4">
-        <v>16.84655279793225</v>
+        <v>9.6964385397083</v>
       </c>
       <c r="D4">
-        <v>6.439835612546638</v>
+        <v>5.773059609588336</v>
       </c>
       <c r="E4">
-        <v>26.47426341036564</v>
+        <v>14.98503997366339</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.055158036731209</v>
+        <v>3.611981970187542</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.76992106887355</v>
+        <v>20.44100398404924</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08507636027247</v>
+        <v>14.17483628783648</v>
       </c>
       <c r="C5">
-        <v>16.52359334563285</v>
+        <v>9.517461930409029</v>
       </c>
       <c r="D5">
-        <v>6.29966923446713</v>
+        <v>5.743170413395644</v>
       </c>
       <c r="E5">
-        <v>25.87372838726093</v>
+        <v>14.73318237601567</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.057454095865622</v>
+        <v>3.612809956495366</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.64274861959521</v>
+        <v>20.45363317324225</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.00649554700279</v>
+        <v>14.14070100983407</v>
       </c>
       <c r="C6">
-        <v>16.46938777389122</v>
+        <v>9.487385002728882</v>
       </c>
       <c r="D6">
-        <v>6.276141435347377</v>
+        <v>5.738220849999554</v>
       </c>
       <c r="E6">
-        <v>25.77307009307037</v>
+        <v>14.69101241570584</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.057837235789199</v>
+        <v>3.612948892272536</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.62200918668205</v>
+        <v>20.45586691406482</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.54669607204927</v>
+        <v>14.37605203395405</v>
       </c>
       <c r="C7">
-        <v>16.84223602360603</v>
+        <v>9.694048825362851</v>
       </c>
       <c r="D7">
-        <v>6.437962221738871</v>
+        <v>5.772655637005927</v>
       </c>
       <c r="E7">
-        <v>26.46622710853335</v>
+        <v>14.98166694662424</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.055188877450423</v>
+        <v>3.611993039603339</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.76818061126858</v>
+        <v>20.44116513072634</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.80194498168468</v>
+        <v>15.37359075367866</v>
       </c>
       <c r="C8">
-        <v>18.4036040061534</v>
+        <v>10.5537168695809</v>
       </c>
       <c r="D8">
-        <v>7.115644224982691</v>
+        <v>5.926252590775858</v>
       </c>
       <c r="E8">
-        <v>29.39159199413553</v>
+        <v>16.2114741812632</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.043760270950995</v>
+        <v>3.607985090168384</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.46865685271729</v>
+        <v>20.3962885068153</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.77359875650257</v>
+        <v>17.16839700975018</v>
       </c>
       <c r="C9">
-        <v>21.16728653397066</v>
+        <v>12.04995978898853</v>
       </c>
       <c r="D9">
-        <v>8.31810524790632</v>
+        <v>6.230360725910545</v>
       </c>
       <c r="E9">
-        <v>34.68387114183156</v>
+        <v>18.51775793847523</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.022109545391438</v>
+        <v>3.600874095281281</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.04613355904364</v>
+        <v>20.38128681596864</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.42864080315427</v>
+        <v>18.37921429312474</v>
       </c>
       <c r="C10">
-        <v>23.02164211896529</v>
+        <v>13.03302162647491</v>
       </c>
       <c r="D10">
-        <v>9.12898336732381</v>
+        <v>6.452970670417021</v>
       </c>
       <c r="E10">
-        <v>38.33993885867383</v>
+        <v>20.17319181352013</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.006483769098397</v>
+        <v>3.596100052599133</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.38313180681205</v>
+        <v>20.41560622515734</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.5824106452357</v>
+        <v>18.90516815627925</v>
       </c>
       <c r="C11">
-        <v>23.82871763284329</v>
+        <v>13.45498127092831</v>
       </c>
       <c r="D11">
-        <v>9.483239432255738</v>
+        <v>6.553547596103231</v>
       </c>
       <c r="E11">
-        <v>39.96304800479616</v>
+        <v>20.88430613434355</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.999388407690044</v>
+        <v>3.594024743711961</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.23065877693886</v>
+        <v>20.44119522310502</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.01182891382995</v>
+        <v>19.10066536695179</v>
       </c>
       <c r="C12">
-        <v>24.12926718002279</v>
+        <v>13.61113936901156</v>
       </c>
       <c r="D12">
-        <v>9.615390303184563</v>
+        <v>6.591494027042382</v>
       </c>
       <c r="E12">
-        <v>40.57294121621194</v>
+        <v>21.14759292288251</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.996698756219668</v>
+        <v>3.593252646344426</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.55178329664956</v>
+        <v>20.45232667034793</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.91967427716638</v>
+        <v>19.05872611873617</v>
       </c>
       <c r="C13">
-        <v>24.0647609611779</v>
+        <v>13.57766927926213</v>
       </c>
       <c r="D13">
-        <v>9.587016336489349</v>
+        <v>6.583328428779922</v>
       </c>
       <c r="E13">
-        <v>40.44178271345154</v>
+        <v>21.09115554363144</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.997278226483743</v>
+        <v>3.593418320003365</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.48260960545548</v>
+        <v>20.44986512417275</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.61788751935158</v>
+        <v>18.92132587215132</v>
       </c>
       <c r="C14">
-        <v>23.85354458046971</v>
+        <v>13.46790120443458</v>
       </c>
       <c r="D14">
-        <v>9.494150973522576</v>
+        <v>6.556672500060177</v>
       </c>
       <c r="E14">
-        <v>40.01331291032519</v>
+        <v>20.90608687723363</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.999167213506192</v>
+        <v>3.593960947193427</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.25707221227354</v>
+        <v>20.44208209537013</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.43206795689429</v>
+        <v>18.83668374550258</v>
       </c>
       <c r="C15">
-        <v>23.72351354047717</v>
+        <v>13.40019257806018</v>
       </c>
       <c r="D15">
-        <v>9.437011315723666</v>
+        <v>6.540325589638753</v>
       </c>
       <c r="E15">
-        <v>39.75027817223791</v>
+        <v>20.79194707529607</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.000323759262421</v>
+        <v>3.594295113556885</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.11895815313164</v>
+        <v>20.43750264266128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.35217524552258</v>
+        <v>18.34433322051014</v>
       </c>
       <c r="C16">
-        <v>22.96817789128259</v>
+        <v>13.00493765466055</v>
       </c>
       <c r="D16">
-        <v>9.105546365183624</v>
+        <v>6.446380324919181</v>
       </c>
       <c r="E16">
-        <v>38.23314204270228</v>
+        <v>20.1258777188151</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.006947345261665</v>
+        <v>3.596237611659424</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.3277521505805</v>
+        <v>20.41413532243356</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.67604773568787</v>
+        <v>18.0358523061863</v>
       </c>
       <c r="C17">
-        <v>22.49557440759529</v>
+        <v>12.7559963433615</v>
       </c>
       <c r="D17">
-        <v>8.898529764598353</v>
+        <v>6.388541669082916</v>
       </c>
       <c r="E17">
-        <v>37.29284224954142</v>
+        <v>19.7065465927658</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.011010904352556</v>
+        <v>3.597453905195138</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.95061688189401</v>
+        <v>20.40236118249879</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.28205370344398</v>
+        <v>17.85608745634046</v>
       </c>
       <c r="C18">
-        <v>22.22029957978345</v>
+        <v>12.61043589103537</v>
       </c>
       <c r="D18">
-        <v>8.778076667268406</v>
+        <v>6.35521180631063</v>
       </c>
       <c r="E18">
-        <v>36.74816691737448</v>
+        <v>19.46140768340027</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.01334968345328</v>
+        <v>3.59816256655066</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.75562669073266</v>
+        <v>20.39652783803772</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.14776962798897</v>
+        <v>17.79482439881592</v>
       </c>
       <c r="C19">
-        <v>22.12649963971951</v>
+        <v>12.56074357907673</v>
       </c>
       <c r="D19">
-        <v>8.737052885875981</v>
+        <v>6.343917414299844</v>
       </c>
       <c r="E19">
-        <v>36.56306137214258</v>
+        <v>19.3777282272498</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.014141946863781</v>
+        <v>3.598404069577771</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.69007744949542</v>
+        <v>20.39471376463754</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.74854892968352</v>
+        <v>18.06893302232145</v>
       </c>
       <c r="C20">
-        <v>22.54623932332031</v>
+        <v>12.78274248280629</v>
       </c>
       <c r="D20">
-        <v>8.920709418952558</v>
+        <v>6.394705473583352</v>
       </c>
       <c r="E20">
-        <v>37.3933293262157</v>
+        <v>19.75159373286345</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.010578204958268</v>
+        <v>3.597323489423087</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.98693004792572</v>
+        <v>20.40351733772573</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.70673046658089</v>
+        <v>18.9617839399954</v>
       </c>
       <c r="C21">
-        <v>23.91572007990514</v>
+        <v>13.50024121417377</v>
       </c>
       <c r="D21">
-        <v>9.521481125382927</v>
+        <v>6.564506101597837</v>
       </c>
       <c r="E21">
-        <v>40.13928464914827</v>
+        <v>20.96060849769838</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.998612488506246</v>
+        <v>3.593801191237288</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.32331025600221</v>
+        <v>20.44432899760748</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.94301771731495</v>
+        <v>19.5238887899039</v>
       </c>
       <c r="C22">
-        <v>24.78129247521865</v>
+        <v>13.94801875218763</v>
       </c>
       <c r="D22">
-        <v>9.902530520490574</v>
+        <v>6.674648130764202</v>
       </c>
       <c r="E22">
-        <v>41.90688215583504</v>
+        <v>21.71583220212232</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.990773237664623</v>
+        <v>3.591579427890479</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.25869827452232</v>
+        <v>20.47940499351759</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.2870663365279</v>
+        <v>19.22587056246032</v>
       </c>
       <c r="C23">
-        <v>24.32195042112882</v>
+        <v>13.71096561264703</v>
       </c>
       <c r="D23">
-        <v>9.700180156792117</v>
+        <v>6.6159522840645</v>
       </c>
       <c r="E23">
-        <v>40.96557403127429</v>
+        <v>21.3159401168671</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.99496065337066</v>
+        <v>3.592757910168205</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.75922662664151</v>
+        <v>20.45991379604136</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.71578760437644</v>
+        <v>18.05398474546012</v>
       </c>
       <c r="C24">
-        <v>22.52334484356536</v>
+        <v>12.77065815575815</v>
       </c>
       <c r="D24">
-        <v>8.910686479237642</v>
+        <v>6.391919056334736</v>
       </c>
       <c r="E24">
-        <v>37.34791191512894</v>
+        <v>19.73124056960713</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.01077381996278</v>
+        <v>3.597382421112315</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.97050452757384</v>
+        <v>20.40299172561344</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.74627163044033</v>
+        <v>16.70121519621702</v>
       </c>
       <c r="C25">
-        <v>20.45106401469268</v>
+        <v>11.66557346941336</v>
       </c>
       <c r="D25">
-        <v>8.005903404606089</v>
+        <v>6.148053482900536</v>
       </c>
       <c r="E25">
-        <v>33.29604581122018</v>
+        <v>17.87069104989532</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.027902727237037</v>
+        <v>3.602718283000311</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.5971364079189</v>
+        <v>20.37743450856214</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_129/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.6333735743518</v>
+        <v>25.38208947890488</v>
       </c>
       <c r="C2">
-        <v>10.77385563564584</v>
+        <v>18.80632325271145</v>
       </c>
       <c r="D2">
-        <v>5.968165594392101</v>
+        <v>7.290548318488434</v>
       </c>
       <c r="E2">
-        <v>16.53126690945976</v>
+        <v>30.15287844083839</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.606950018463854</v>
+        <v>2.040721210584803</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.38903314766108</v>
+        <v>16.6720953282736</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.86797853438551</v>
+        <v>23.66502702777684</v>
       </c>
       <c r="C3">
-        <v>10.12104376140404</v>
+        <v>17.61559310514028</v>
       </c>
       <c r="D3">
-        <v>5.84689993182348</v>
+        <v>6.773575465857634</v>
       </c>
       <c r="E3">
-        <v>15.58853288814663</v>
+        <v>27.91029567760997</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.610008915970679</v>
+        <v>2.049597483861757</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.41558900619489</v>
+        <v>16.09743737345097</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.37878427975039</v>
+        <v>22.55294626339593</v>
       </c>
       <c r="C4">
-        <v>9.6964385397083</v>
+        <v>16.84655279793227</v>
       </c>
       <c r="D4">
-        <v>5.773059609588336</v>
+        <v>6.4398356125467</v>
       </c>
       <c r="E4">
-        <v>14.98503997366339</v>
+        <v>26.47426341036575</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.611981970187542</v>
+        <v>2.055158036731342</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.44100398404924</v>
+        <v>15.76992106887339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.17483628783648</v>
+        <v>22.08507636027243</v>
       </c>
       <c r="C5">
-        <v>9.517461930409029</v>
+        <v>16.52359334563287</v>
       </c>
       <c r="D5">
-        <v>5.743170413395644</v>
+        <v>6.299669234467088</v>
       </c>
       <c r="E5">
-        <v>14.73318237601567</v>
+        <v>25.87372838726099</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.612809956495366</v>
+        <v>2.057454095865623</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.45363317324225</v>
+        <v>15.6427486195952</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.14070100983407</v>
+        <v>22.00649554700276</v>
       </c>
       <c r="C6">
-        <v>9.487385002728882</v>
+        <v>16.46938777389121</v>
       </c>
       <c r="D6">
-        <v>5.738220849999554</v>
+        <v>6.276141435347377</v>
       </c>
       <c r="E6">
-        <v>14.69101241570584</v>
+        <v>25.77307009307031</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.612948892272536</v>
+        <v>2.057837235789201</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.45586691406482</v>
+        <v>15.62200918668207</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.37605203395405</v>
+        <v>22.54669607204914</v>
       </c>
       <c r="C7">
-        <v>9.694048825362851</v>
+        <v>16.84223602360598</v>
       </c>
       <c r="D7">
-        <v>5.772655637005927</v>
+        <v>6.437962221738813</v>
       </c>
       <c r="E7">
-        <v>14.98166694662424</v>
+        <v>26.4662271085332</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.611993039603339</v>
+        <v>2.055188877450422</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.44116513072634</v>
+        <v>15.76818061126876</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.37359075367866</v>
+        <v>24.80194498168478</v>
       </c>
       <c r="C8">
-        <v>10.5537168695809</v>
+        <v>18.40360400615336</v>
       </c>
       <c r="D8">
-        <v>5.926252590775858</v>
+        <v>7.115644224982733</v>
       </c>
       <c r="E8">
-        <v>16.2114741812632</v>
+        <v>29.39159199413567</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.607985090168384</v>
+        <v>2.043760270950995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.3962885068153</v>
+        <v>16.46865685271722</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.16839700975018</v>
+        <v>28.77359875650265</v>
       </c>
       <c r="C9">
-        <v>12.04995978898853</v>
+        <v>21.16728653397068</v>
       </c>
       <c r="D9">
-        <v>6.230360725910545</v>
+        <v>8.318105247906441</v>
       </c>
       <c r="E9">
-        <v>18.51775793847523</v>
+        <v>34.68387114183169</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.600874095281281</v>
+        <v>2.022109545391571</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.38128681596864</v>
+        <v>18.04613355904361</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.37921429312474</v>
+        <v>31.42864080315425</v>
       </c>
       <c r="C10">
-        <v>13.03302162647491</v>
+        <v>23.02164211896523</v>
       </c>
       <c r="D10">
-        <v>6.452970670417021</v>
+        <v>9.128983367323849</v>
       </c>
       <c r="E10">
-        <v>20.17319181352013</v>
+        <v>38.33993885867379</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.596100052599133</v>
+        <v>2.006483769098262</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.41560622515734</v>
+        <v>19.38313180681194</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.90516815627925</v>
+        <v>32.58241064523567</v>
       </c>
       <c r="C11">
-        <v>13.45498127092831</v>
+        <v>23.82871763284324</v>
       </c>
       <c r="D11">
-        <v>6.553547596103231</v>
+        <v>9.483239432255642</v>
       </c>
       <c r="E11">
-        <v>20.88430613434355</v>
+        <v>39.96304800479616</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.594024743711961</v>
+        <v>1.999388407690177</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.44119522310502</v>
+        <v>20.23065877693886</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.10066536695179</v>
+        <v>33.0118289138299</v>
       </c>
       <c r="C12">
-        <v>13.61113936901156</v>
+        <v>24.12926718002285</v>
       </c>
       <c r="D12">
-        <v>6.591494027042382</v>
+        <v>9.615390303184492</v>
       </c>
       <c r="E12">
-        <v>21.14759292288251</v>
+        <v>40.57294121621193</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.593252646344426</v>
+        <v>1.996698756219669</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.45232667034793</v>
+        <v>20.5517832966495</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.05872611873617</v>
+        <v>32.91967427716638</v>
       </c>
       <c r="C13">
-        <v>13.57766927926213</v>
+        <v>24.06476096117791</v>
       </c>
       <c r="D13">
-        <v>6.583328428779922</v>
+        <v>9.587016336489338</v>
       </c>
       <c r="E13">
-        <v>21.09115554363144</v>
+        <v>40.44178271345157</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.593418320003365</v>
+        <v>1.997278226483743</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.44986512417275</v>
+        <v>20.48260960545554</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.92132587215132</v>
+        <v>32.61788751935165</v>
       </c>
       <c r="C14">
-        <v>13.46790120443458</v>
+        <v>23.85354458046966</v>
       </c>
       <c r="D14">
-        <v>6.556672500060177</v>
+        <v>9.494150973522638</v>
       </c>
       <c r="E14">
-        <v>20.90608687723363</v>
+        <v>40.01331291032536</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.593960947193427</v>
+        <v>1.999167213506328</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.44208209537013</v>
+        <v>20.25707221227363</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.83668374550258</v>
+        <v>32.43206795689416</v>
       </c>
       <c r="C15">
-        <v>13.40019257806018</v>
+        <v>23.72351354047711</v>
       </c>
       <c r="D15">
-        <v>6.540325589638753</v>
+        <v>9.437011315723501</v>
       </c>
       <c r="E15">
-        <v>20.79194707529607</v>
+        <v>39.75027817223788</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.594295113556885</v>
+        <v>2.000323759262423</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.43750264266128</v>
+        <v>20.11895815313152</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.34433322051014</v>
+        <v>31.35217524552264</v>
       </c>
       <c r="C16">
-        <v>13.00493765466055</v>
+        <v>22.96817789128265</v>
       </c>
       <c r="D16">
-        <v>6.446380324919181</v>
+        <v>9.105546365183656</v>
       </c>
       <c r="E16">
-        <v>20.1258777188151</v>
+        <v>38.2331420427024</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.596237611659424</v>
+        <v>2.006947345261661</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.41413532243356</v>
+        <v>19.32775215058057</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.0358523061863</v>
+        <v>30.67604773568779</v>
       </c>
       <c r="C17">
-        <v>12.7559963433615</v>
+        <v>22.49557440759523</v>
       </c>
       <c r="D17">
-        <v>6.388541669082916</v>
+        <v>8.898529764598281</v>
       </c>
       <c r="E17">
-        <v>19.7065465927658</v>
+        <v>37.29284224954137</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.597453905195138</v>
+        <v>2.011010904352554</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.40236118249879</v>
+        <v>18.95061688189403</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.85608745634046</v>
+        <v>30.28205370344389</v>
       </c>
       <c r="C18">
-        <v>12.61043589103537</v>
+        <v>22.22029957978342</v>
       </c>
       <c r="D18">
-        <v>6.35521180631063</v>
+        <v>8.778076667268367</v>
       </c>
       <c r="E18">
-        <v>19.46140768340027</v>
+        <v>36.7481669173745</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.59816256655066</v>
+        <v>2.013349683453546</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.39652783803772</v>
+        <v>18.75562669073268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.79482439881592</v>
+        <v>30.14776962798898</v>
       </c>
       <c r="C19">
-        <v>12.56074357907673</v>
+        <v>22.12649963971948</v>
       </c>
       <c r="D19">
-        <v>6.343917414299844</v>
+        <v>8.737052885875904</v>
       </c>
       <c r="E19">
-        <v>19.3777282272498</v>
+        <v>36.5630613721426</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.598404069577771</v>
+        <v>2.014141946863782</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.39471376463754</v>
+        <v>18.69007744949545</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.06893302232145</v>
+        <v>30.7485489296835</v>
       </c>
       <c r="C20">
-        <v>12.78274248280629</v>
+        <v>22.54623932332024</v>
       </c>
       <c r="D20">
-        <v>6.394705473583352</v>
+        <v>8.920709418952457</v>
       </c>
       <c r="E20">
-        <v>19.75159373286345</v>
+        <v>37.39332932621559</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.597323489423087</v>
+        <v>2.010578204958402</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.40351733772573</v>
+        <v>18.9869300479257</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.9617839399954</v>
+        <v>32.70673046658087</v>
       </c>
       <c r="C21">
-        <v>13.50024121417377</v>
+        <v>23.91572007990514</v>
       </c>
       <c r="D21">
-        <v>6.564506101597837</v>
+        <v>9.521481125382952</v>
       </c>
       <c r="E21">
-        <v>20.96060849769838</v>
+        <v>40.13928464914818</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.593801191237288</v>
+        <v>1.998612488506381</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.44432899760748</v>
+        <v>20.32331025600222</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.5238887899039</v>
+        <v>33.94301771731505</v>
       </c>
       <c r="C22">
-        <v>13.94801875218763</v>
+        <v>24.78129247521845</v>
       </c>
       <c r="D22">
-        <v>6.674648130764202</v>
+        <v>9.902530520490611</v>
       </c>
       <c r="E22">
-        <v>21.71583220212232</v>
+        <v>41.90688215583507</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.591579427890479</v>
+        <v>1.990773237664623</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.47940499351759</v>
+        <v>21.25869827452235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.22587056246032</v>
+        <v>33.28706633652786</v>
       </c>
       <c r="C23">
-        <v>13.71096561264703</v>
+        <v>24.32195042112881</v>
       </c>
       <c r="D23">
-        <v>6.6159522840645</v>
+        <v>9.70018015679214</v>
       </c>
       <c r="E23">
-        <v>21.3159401168671</v>
+        <v>40.96557403127423</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.592757910168205</v>
+        <v>1.994960653370661</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.45991379604136</v>
+        <v>20.75922662664146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.05398474546012</v>
+        <v>30.71578760437634</v>
       </c>
       <c r="C24">
-        <v>12.77065815575815</v>
+        <v>22.52334484356522</v>
       </c>
       <c r="D24">
-        <v>6.391919056334736</v>
+        <v>8.910686479237619</v>
       </c>
       <c r="E24">
-        <v>19.73124056960713</v>
+        <v>37.34791191512877</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.597382421112315</v>
+        <v>2.010773819962644</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.40299172561344</v>
+        <v>18.97050452757383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.70121519621702</v>
+        <v>27.74627163044037</v>
       </c>
       <c r="C25">
-        <v>11.66557346941336</v>
+        <v>20.45106401469267</v>
       </c>
       <c r="D25">
-        <v>6.148053482900536</v>
+        <v>8.005903404606126</v>
       </c>
       <c r="E25">
-        <v>17.87069104989532</v>
+        <v>33.29604581122021</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.602718283000311</v>
+        <v>2.027902727237034</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.37743450856214</v>
+        <v>17.59713640791889</v>
       </c>
     </row>
   </sheetData>
